--- a/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
+++ b/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test_22.7\server\modules\onprcEHRModules\onprc_ehr\resources\web\onprc_ehr\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC731CA5-DE8E-426D-94FE-A93F0D2591B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4658D6-388D-4AB4-B3F8-9358341A4FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3C994614-C82B-4F4F-8C34-DAAF4D70F013}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{3C994614-C82B-4F4F-8C34-DAAF4D70F013}"/>
   </bookViews>
   <sheets>
     <sheet name="for Resp" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t xml:space="preserve"> Detected</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>Leave blank</t>
+  </si>
+  <si>
+    <t>Multiplex PCR</t>
   </si>
 </sst>
 </file>
@@ -1840,20 +1843,20 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>40</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>34</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>39</v>
       </c>
@@ -1909,12 +1912,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>66</v>
@@ -1926,7 +1929,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>36</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>29</v>
       </c>
@@ -1949,145 +1952,145 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
@@ -2120,22 +2123,22 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>60</v>
       </c>
@@ -2153,15 +2156,15 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2187,7 +2190,7 @@
       <c r="C3" s="20"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>35160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>44854.063194444447</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>23</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>24</v>
       </c>

--- a/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
+++ b/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test_22.7\server\modules\onprcEHRModules\onprc_ehr\resources\web\onprc_ehr\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blasar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4658D6-388D-4AB4-B3F8-9358341A4FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D124F38-B640-45B0-8FFC-110C0DE08E06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{3C994614-C82B-4F4F-8C34-DAAF4D70F013}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3C994614-C82B-4F4F-8C34-DAAF4D70F013}"/>
   </bookViews>
   <sheets>
     <sheet name="for Resp" sheetId="3" r:id="rId1"/>
@@ -1846,17 +1846,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>40</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>34</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>39</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>37</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>36</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>29</v>
       </c>
@@ -1952,145 +1952,145 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
@@ -2123,22 +2123,22 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>60</v>
       </c>
@@ -2156,15 +2156,15 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="C3" s="20"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>35160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>44854.063194444447</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>22</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>23</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>24</v>
       </c>

--- a/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
+++ b/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blasar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\XML_Project\Heidi_Palmer\Final_BioFireTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D124F38-B640-45B0-8FFC-110C0DE08E06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA73247-C8B1-446B-844C-17CCF8328F90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3C994614-C82B-4F4F-8C34-DAAF4D70F013}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t xml:space="preserve"> Detected</t>
   </si>
@@ -404,9 +404,6 @@
     </r>
   </si>
   <si>
-    <t>Do not need Instrument number</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -425,10 +422,19 @@
     <t>Tissue=Nasopharynx, NOS (T-23000)</t>
   </si>
   <si>
-    <t>Leave blank</t>
-  </si>
-  <si>
     <t>Multiplex PCR</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>T-23000</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Testing for you you you</t>
   </si>
 </sst>
 </file>
@@ -1840,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0E80BC-4DDB-44A9-85FF-D0D24B5A21FA}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B30" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,14 +1864,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>63</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -1875,7 +1879,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1887,7 +1891,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,7 +1902,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1909,7 +1913,7 @@
         <v>492</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,16 +1921,16 @@
         <v>37</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,162 +1944,216 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="D8" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>28809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="14">
+        <v>44830</v>
+      </c>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="B25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2107,7 +2165,7 @@
           <x14:formula1>
             <xm:f>'cheat sheet'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B11:C29</xm:sqref>
+          <xm:sqref>B12:C30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
+++ b/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\XML_Project\Heidi_Palmer\Final_BioFireTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA73247-C8B1-446B-844C-17CCF8328F90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3F941E-D1BE-4A56-9AD3-AF914782F28E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3C994614-C82B-4F4F-8C34-DAAF4D70F013}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t xml:space="preserve"> Detected</t>
   </si>
@@ -428,13 +428,7 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>T-23000</t>
-  </si>
-  <si>
     <t>RJ</t>
-  </si>
-  <si>
-    <t>Testing for you you you</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1843,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="A1:B30"/>
+      <selection activeCell="B12" sqref="B12:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,9 +1860,7 @@
       <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>73</v>
-      </c>
+      <c r="B1" s="28"/>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,9 +1943,7 @@
       <c r="A8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>71</v>
-      </c>
+      <c r="B8" s="30"/>
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,7 +1951,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>67</v>
@@ -1971,188 +1961,145 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>28809</v>
-      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="14">
-        <v>44830</v>
-      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B29" s="10"/>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="12"/>
     </row>
   </sheetData>

--- a/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
+++ b/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplate_Respiratory_Panel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\XML_Project\Heidi_Palmer\Final_BioFireTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test_22.7\server\modules\onprcEHRModules\onprc_ehr\resources\web\onprc_ehr\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134F3F1-41AF-4224-8812-B0C12ED34E07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D611FFE-E597-418D-92F2-B9337ECCBE19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3C994614-C82B-4F4F-8C34-DAAF4D70F013}"/>
   </bookViews>
@@ -238,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -246,135 +246,62 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,241 +621,241 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49" style="10" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="15">
         <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="23"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>2135</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,17 +889,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
